--- a/config/excel/DemoStage.xlsx
+++ b/config/excel/DemoStage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D5B88D-9CED-4A98-AFAA-FC278334F495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84366C2B-3124-4587-8FD5-F0053CD6A840}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>16</v>
@@ -1108,7 +1108,7 @@
         <v>-4</v>
       </c>
       <c r="G10" s="16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H10" s="15">
         <v>0.75</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>5</v>
+        <v>1010501</v>
       </c>
       <c r="H11" s="15">
         <v>0.4</v>
@@ -1152,7 +1152,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="16">
-        <v>5</v>
+        <v>1010501</v>
       </c>
       <c r="H12" s="15">
         <v>0.6</v>
@@ -1174,7 +1174,7 @@
         <v>-4</v>
       </c>
       <c r="G13" s="16">
-        <v>6</v>
+        <v>1010501</v>
       </c>
       <c r="H13" s="15">
         <v>0.2</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="19">
-        <v>7</v>
+        <v>1010401</v>
       </c>
       <c r="H14" s="18">
         <v>0</v>
